--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_without_Don/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_without_Don/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\NV_without_Don\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C07A3B1-90A1-451D-9B58-80864EF2C2E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E60FA4-A99E-42A1-BC0F-165A410D9B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,10 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$572</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$511</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$573</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$512</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="1011">
   <si>
     <t>1С</t>
   </si>
@@ -3069,6 +3069,9 @@
   </si>
   <si>
     <t>Снеки «Хотстеры с сыром» Фикс.вес 0,25 ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Готовые чебупели сочные с мясом ТМ Горячая штучка флоу-пак 0,48 кг  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -6324,11 +6327,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13081,7 +13084,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>327</v>
+        <v>1010</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>890</v>
@@ -13105,22 +13108,22 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>333</v>
+        <v>890</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>334</v>
+        <v>891</v>
       </c>
       <c r="D281" s="4">
-        <v>4301130006</v>
+        <v>4301135571</v>
       </c>
       <c r="E281" s="3">
-        <v>4607111034670</v>
+        <v>4607111035028</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>335</v>
+        <v>892</v>
       </c>
       <c r="G281" s="1">
         <f>VLOOKUP(E281,[1]Лист1!$D:$M,10,0)</f>
@@ -13129,7 +13132,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>333</v>
@@ -13153,7 +13156,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>332</v>
+        <v>460</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>333</v>
@@ -13177,22 +13180,22 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>590</v>
+        <v>333</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>591</v>
+        <v>334</v>
       </c>
       <c r="D284" s="4">
-        <v>4301071054</v>
+        <v>4301130006</v>
       </c>
       <c r="E284" s="3">
-        <v>4607111035639</v>
+        <v>4607111034670</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>592</v>
+        <v>335</v>
       </c>
       <c r="G284" s="1">
         <f>VLOOKUP(E284,[1]Лист1!$D:$M,10,0)</f>
@@ -13201,7 +13204,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>590</v>
@@ -13225,22 +13228,22 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>340</v>
+        <v>590</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="D286" s="4">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E286" s="3">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="G286" s="1">
         <f>VLOOKUP(E286,[1]Лист1!$D:$M,10,0)</f>
@@ -13249,7 +13252,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>936</v>
+        <v>431</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>340</v>
@@ -13273,7 +13276,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>339</v>
+        <v>936</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>340</v>
@@ -13297,31 +13300,31 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>641</v>
+        <v>339</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>353</v>
+        <v>560</v>
       </c>
       <c r="D289" s="4">
-        <v>4301080154</v>
+        <v>4301135540</v>
       </c>
       <c r="E289" s="3">
-        <v>4607111036834</v>
+        <v>4607111035646</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>354</v>
+        <v>561</v>
       </c>
       <c r="G289" s="1">
         <f>VLOOKUP(E289,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>354</v>
+        <v>641</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>352</v>
@@ -13345,7 +13348,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>352</v>
@@ -13369,22 +13372,22 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D292" s="4">
-        <v>4301070941</v>
+        <v>4301080154</v>
       </c>
       <c r="E292" s="3">
-        <v>4607111036162</v>
+        <v>4607111036834</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G292" s="1">
         <f>VLOOKUP(E292,[1]Лист1!$D:$M,10,0)</f>
@@ -13393,46 +13396,46 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D293" s="4">
-        <v>4301070826</v>
+        <v>4301070941</v>
       </c>
       <c r="E293" s="3">
-        <v>4607111035752</v>
+        <v>4607111036162</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G293" s="1">
         <f>VLOOKUP(E293,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D294" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E294" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G294" s="1">
         <f>VLOOKUP(E294,[1]Лист1!$D:$M,10,0)</f>
@@ -13441,7 +13444,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>368</v>
@@ -13465,7 +13468,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>367</v>
+        <v>451</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>368</v>
@@ -13489,55 +13492,55 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D297" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E297" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G297" s="1">
         <f>VLOOKUP(E297,[1]Лист1!$D:$M,10,0)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D298" s="4">
-        <v>4301131019</v>
+        <v>4301070911</v>
       </c>
       <c r="E298" s="3">
-        <v>4640242180427</v>
+        <v>4607111036278</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G298" s="1">
         <f>VLOOKUP(E298,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>165</v>
+        <v>393</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>375</v>
@@ -13561,7 +13564,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>377</v>
+        <v>165</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>375</v>
@@ -13585,7 +13588,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>375</v>
@@ -13609,22 +13612,22 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>784</v>
+        <v>375</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>785</v>
+        <v>376</v>
       </c>
       <c r="D302" s="4">
-        <v>4301132170</v>
+        <v>4301131019</v>
       </c>
       <c r="E302" s="3">
-        <v>4607111038487</v>
+        <v>4640242180427</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>786</v>
+        <v>377</v>
       </c>
       <c r="G302" s="1">
         <f>VLOOKUP(E302,[1]Лист1!$D:$M,10,0)</f>
@@ -13633,7 +13636,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>784</v>
@@ -13657,7 +13660,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>784</v>
@@ -13681,7 +13684,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>784</v>
@@ -13705,22 +13708,22 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>435</v>
+        <v>784</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>436</v>
+        <v>785</v>
       </c>
       <c r="D306" s="4">
-        <v>4301070884</v>
+        <v>4301132170</v>
       </c>
       <c r="E306" s="3">
-        <v>4607111036315</v>
+        <v>4607111038487</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>437</v>
+        <v>786</v>
       </c>
       <c r="G306" s="1">
         <f>VLOOKUP(E306,[1]Лист1!$D:$M,10,0)</f>
@@ -13729,7 +13732,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>435</v>
@@ -13753,22 +13756,22 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D308" s="4">
-        <v>4301133002</v>
+        <v>4301070884</v>
       </c>
       <c r="E308" s="3">
-        <v>4607111035783</v>
+        <v>4607111036315</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G308" s="1">
         <f>VLOOKUP(E308,[1]Лист1!$D:$M,10,0)</f>
@@ -13777,22 +13780,22 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D309" s="4">
-        <v>4301070958</v>
+        <v>4301133002</v>
       </c>
       <c r="E309" s="3">
-        <v>4607111038098</v>
+        <v>4607111035783</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G309" s="1">
         <f>VLOOKUP(E309,[1]Лист1!$D:$M,10,0)</f>
@@ -13801,30 +13804,31 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="D310" s="4">
-        <v>4301135318</v>
+        <v>4301070958</v>
       </c>
       <c r="E310" s="3">
-        <v>4607111037480</v>
+        <v>4607111038098</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="G310" s="1">
+        <f>VLOOKUP(E310,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>463</v>
@@ -13847,7 +13851,7 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>463</v>
@@ -13870,22 +13874,22 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D313" s="4">
-        <v>4301135319</v>
+        <v>4301135318</v>
       </c>
       <c r="E313" s="3">
-        <v>4607111037473</v>
+        <v>4607111037480</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G313" s="1">
         <v>180</v>
@@ -13893,7 +13897,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>466</v>
@@ -13916,7 +13920,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>466</v>
@@ -13939,28 +13943,30 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="D316" s="4">
-        <v>4301135198</v>
+        <v>4301135319</v>
       </c>
       <c r="E316" s="3">
-        <v>4640242180663</v>
+        <v>4607111037473</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="G316" s="1"/>
+        <v>467</v>
+      </c>
+      <c r="G316" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>469</v>
@@ -13981,51 +13987,49 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D318" s="4">
-        <v>4301135317</v>
+        <v>4301135198</v>
       </c>
       <c r="E318" s="3">
-        <v>4607111039057</v>
+        <v>4640242180663</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G318" s="1"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D319" s="4">
-        <v>4301070963</v>
+        <v>4301135317</v>
       </c>
       <c r="E319" s="3">
-        <v>4607111038630</v>
+        <v>4607111039057</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="G319" s="1">
-        <v>180</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="G319" s="1"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>483</v>
@@ -14046,24 +14050,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D321" s="4">
-        <v>4301070960</v>
+        <v>4301070963</v>
       </c>
       <c r="E321" s="3">
-        <v>4607111038623</v>
+        <v>4607111038630</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G321" s="1">
         <v>180</v>
@@ -14071,7 +14075,7 @@
     </row>
     <row r="322" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>487</v>
@@ -14094,7 +14098,7 @@
     </row>
     <row r="323" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>487</v>
@@ -14117,7 +14121,7 @@
     </row>
     <row r="324" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>487</v>
@@ -14138,24 +14142,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="B325" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="C325" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="D325" s="13">
-        <v>4301070997</v>
-      </c>
-      <c r="E325" s="14">
-        <v>4607111038586</v>
-      </c>
-      <c r="F325" s="15" t="s">
-        <v>493</v>
+        <v>486</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D325" s="4">
+        <v>4301070960</v>
+      </c>
+      <c r="E325" s="3">
+        <v>4607111038623</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="G325" s="1">
         <v>180</v>
@@ -14163,7 +14167,7 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B326" s="12" t="s">
         <v>491</v>
@@ -14186,7 +14190,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B327" s="12" t="s">
         <v>491</v>
@@ -14209,7 +14213,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B328" s="12" t="s">
         <v>491</v>
@@ -14232,30 +14236,30 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="D329" s="4">
-        <v>4301190046</v>
-      </c>
-      <c r="E329" s="3">
-        <v>4607111038951</v>
-      </c>
-      <c r="F329" s="5" t="s">
-        <v>507</v>
+        <v>490</v>
+      </c>
+      <c r="B329" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C329" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="D329" s="13">
+        <v>4301070997</v>
+      </c>
+      <c r="E329" s="14">
+        <v>4607111038586</v>
+      </c>
+      <c r="F329" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="G329" s="1">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>505</v>
@@ -14278,30 +14282,30 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D331" s="4">
-        <v>4301070996</v>
+        <v>4301190046</v>
       </c>
       <c r="E331" s="3">
-        <v>4607111038654</v>
+        <v>4607111038951</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G331" s="1">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>510</v>
@@ -14324,28 +14328,30 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D333" s="4">
-        <v>4301071021</v>
+        <v>4301070996</v>
       </c>
       <c r="E333" s="3">
-        <v>4640242181325</v>
+        <v>4607111038654</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="G333" s="1"/>
+        <v>509</v>
+      </c>
+      <c r="G333" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>516</v>
@@ -14366,7 +14372,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>516</v>
@@ -14387,7 +14393,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>515</v>
+        <v>569</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>516</v>
@@ -14408,73 +14414,73 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D337" s="4">
-        <v>4301135309</v>
+        <v>4301071021</v>
       </c>
       <c r="E337" s="3">
-        <v>4640242181332</v>
+        <v>4640242181325</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G337" s="1"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>318</v>
+        <v>520</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>319</v>
+        <v>521</v>
       </c>
       <c r="D338" s="4">
-        <v>4301070977</v>
+        <v>4301135309</v>
       </c>
       <c r="E338" s="3">
-        <v>4607111037411</v>
+        <v>4640242181332</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G338" s="1">
-        <f>VLOOKUP(E338,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="G338" s="1"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>529</v>
+        <v>318</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>530</v>
+        <v>319</v>
       </c>
       <c r="D339" s="4">
-        <v>4301071014</v>
+        <v>4301070977</v>
       </c>
       <c r="E339" s="3">
-        <v>4640242181264</v>
+        <v>4607111037411</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="G339" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="G339" s="1">
+        <f>VLOOKUP(E339,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>529</v>
@@ -14495,28 +14501,28 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D341" s="4">
-        <v>4301135310</v>
+        <v>4301071014</v>
       </c>
       <c r="E341" s="3">
-        <v>4640242181318</v>
+        <v>4640242181264</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G341" s="1"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>534</v>
@@ -14537,7 +14543,7 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>534</v>
@@ -14558,28 +14564,28 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D344" s="4">
-        <v>4301135306</v>
+        <v>4301135310</v>
       </c>
       <c r="E344" s="3">
-        <v>4640242181578</v>
+        <v>4640242181318</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G344" s="1"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>633</v>
+        <v>564</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>537</v>
@@ -14600,7 +14606,7 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>536</v>
+        <v>633</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>537</v>
@@ -14621,91 +14627,91 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="B347" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="C347" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="D347" s="13">
-        <v>4301135305</v>
-      </c>
-      <c r="E347" s="14">
-        <v>4640242181394</v>
-      </c>
-      <c r="F347" s="15" t="s">
-        <v>539</v>
+        <v>536</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D347" s="4">
+        <v>4301135306</v>
+      </c>
+      <c r="E347" s="3">
+        <v>4640242181578</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="G347" s="1"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="B348" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B348" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="C348" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="D348" s="4">
+      <c r="D348" s="13">
         <v>4301135305</v>
       </c>
-      <c r="E348" s="3">
+      <c r="E348" s="14">
         <v>4640242181394</v>
       </c>
-      <c r="F348" s="5" t="s">
-        <v>606</v>
+      <c r="F348" s="15" t="s">
+        <v>539</v>
       </c>
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="B349" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="B349" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C349" s="12" t="s">
+      <c r="C349" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="D349" s="13">
+      <c r="D349" s="4">
         <v>4301135305</v>
       </c>
-      <c r="E349" s="14">
+      <c r="E349" s="3">
         <v>4640242181394</v>
       </c>
-      <c r="F349" s="15" t="s">
-        <v>539</v>
+      <c r="F349" s="5" t="s">
+        <v>606</v>
       </c>
       <c r="G349" s="1"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="D350" s="4">
-        <v>4301070993</v>
-      </c>
-      <c r="E350" s="3">
-        <v>4640242180670</v>
-      </c>
-      <c r="F350" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D350" s="13">
+        <v>4301135305</v>
+      </c>
+      <c r="E350" s="14">
+        <v>4640242181394</v>
+      </c>
+      <c r="F350" s="15" t="s">
+        <v>539</v>
       </c>
       <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>543</v>
@@ -14726,7 +14732,7 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>543</v>
@@ -14747,28 +14753,28 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1007</v>
+        <v>543</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>1008</v>
+        <v>544</v>
       </c>
       <c r="D353" s="4">
-        <v>4301135824</v>
+        <v>4301070993</v>
       </c>
       <c r="E353" s="3">
-        <v>4607111039095</v>
+        <v>4640242180670</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>1009</v>
+        <v>542</v>
       </c>
       <c r="G353" s="1"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>765</v>
+        <v>578</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>1007</v>
@@ -14789,7 +14795,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>552</v>
+        <v>765</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>1007</v>
@@ -14810,91 +14816,91 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>571</v>
+        <v>1007</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>572</v>
+        <v>1008</v>
       </c>
       <c r="D356" s="4">
-        <v>4301132104</v>
+        <v>4301135824</v>
       </c>
       <c r="E356" s="3">
-        <v>4640242181219</v>
+        <v>4607111039095</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>573</v>
+        <v>1009</v>
       </c>
       <c r="G356" s="1"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D357" s="4">
-        <v>4301070991</v>
+        <v>4301132104</v>
       </c>
       <c r="E357" s="3">
-        <v>4607111038180</v>
+        <v>4640242181219</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G357" s="1"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="D358" s="4">
-        <v>4301135304</v>
+        <v>4301070991</v>
       </c>
       <c r="E358" s="3">
-        <v>4640242181240</v>
+        <v>4607111038180</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D359" s="4">
-        <v>4301135374</v>
+        <v>4301135304</v>
       </c>
       <c r="E359" s="3">
-        <v>4640242181424</v>
+        <v>4640242181240</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="G359" s="1"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>599</v>
@@ -14915,7 +14921,7 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>599</v>
@@ -14936,7 +14942,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>599</v>
@@ -14957,28 +14963,28 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>682</v>
+        <v>598</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D363" s="4">
-        <v>4301071046</v>
+        <v>4301135374</v>
       </c>
       <c r="E363" s="3">
-        <v>4607111039354</v>
+        <v>4640242181424</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G363" s="1"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>608</v>
@@ -14999,7 +15005,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>608</v>
@@ -15020,28 +15026,28 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>683</v>
+        <v>607</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D366" s="4">
-        <v>4301071047</v>
+        <v>4301071046</v>
       </c>
       <c r="E366" s="3">
-        <v>4607111039330</v>
+        <v>4607111039354</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G366" s="1"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>734</v>
+        <v>683</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>612</v>
@@ -15062,7 +15068,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>614</v>
+        <v>734</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>612</v>
@@ -15083,7 +15089,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>612</v>
@@ -15104,28 +15110,28 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D370" s="4">
-        <v>4301071051</v>
+        <v>4301071047</v>
       </c>
       <c r="E370" s="3">
-        <v>4607111039262</v>
+        <v>4607111039330</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G370" s="1"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>616</v>
@@ -15146,7 +15152,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>618</v>
+        <v>677</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>616</v>
@@ -15167,7 +15173,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>713</v>
+        <v>618</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>616</v>
@@ -15188,7 +15194,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>615</v>
+        <v>713</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>616</v>
@@ -15209,28 +15215,28 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>663</v>
+        <v>615</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D375" s="4">
-        <v>4301071038</v>
+        <v>4301071051</v>
       </c>
       <c r="E375" s="3">
-        <v>4607111039248</v>
+        <v>4607111039262</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G375" s="1"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>620</v>
@@ -15251,7 +15257,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>620</v>
@@ -15272,7 +15278,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>622</v>
+        <v>678</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>620</v>
@@ -15293,7 +15299,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>620</v>
@@ -15314,28 +15320,28 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D380" s="4">
-        <v>4301071049</v>
+        <v>4301071038</v>
       </c>
       <c r="E380" s="3">
-        <v>4607111039293</v>
+        <v>4607111039248</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G380" s="1"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>624</v>
@@ -15356,7 +15362,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>626</v>
+        <v>679</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>624</v>
@@ -15377,7 +15383,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>714</v>
+        <v>626</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>624</v>
@@ -15398,7 +15404,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>623</v>
+        <v>714</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>624</v>
@@ -15419,28 +15425,28 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D385" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E385" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G385" s="1"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>628</v>
@@ -15461,7 +15467,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>628</v>
@@ -15482,7 +15488,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>630</v>
+        <v>680</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>628</v>
@@ -15503,7 +15509,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>628</v>
@@ -15524,28 +15530,28 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="D390" s="4">
-        <v>4301135696</v>
+        <v>4301071039</v>
       </c>
       <c r="E390" s="3">
-        <v>4620207490235</v>
+        <v>4607111039279</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="G390" s="1"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>647</v>
@@ -15566,7 +15572,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>647</v>
@@ -15587,28 +15593,28 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="D393" s="4">
-        <v>4301135707</v>
+        <v>4301135696</v>
       </c>
       <c r="E393" s="3">
-        <v>4620207490198</v>
+        <v>4620207490235</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="G393" s="1"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>658</v>
@@ -15629,7 +15635,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>658</v>
@@ -15650,28 +15656,28 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D396" s="4">
-        <v>4301135697</v>
+        <v>4301135707</v>
       </c>
       <c r="E396" s="3">
-        <v>4620207490259</v>
+        <v>4620207490198</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G396" s="1"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>716</v>
+        <v>660</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>661</v>
@@ -15692,7 +15698,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>661</v>
@@ -15713,28 +15719,28 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="D399" s="4">
-        <v>4301071044</v>
+        <v>4301135697</v>
       </c>
       <c r="E399" s="3">
-        <v>4607111039385</v>
+        <v>4620207490259</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G399" s="1"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>668</v>
@@ -15755,7 +15761,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>668</v>
@@ -15776,7 +15782,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>874</v>
+        <v>670</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>668</v>
@@ -15797,7 +15803,7 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>667</v>
+        <v>874</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>668</v>
@@ -15818,28 +15824,28 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D404" s="4">
-        <v>4301071045</v>
+        <v>4301071044</v>
       </c>
       <c r="E404" s="3">
-        <v>4607111039392</v>
+        <v>4607111039385</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G404" s="1"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>709</v>
+        <v>671</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>672</v>
@@ -15860,7 +15866,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>672</v>
@@ -15881,28 +15887,28 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="D407" s="4">
-        <v>4301071031</v>
+        <v>4301071045</v>
       </c>
       <c r="E407" s="3">
-        <v>4607111038982</v>
+        <v>4607111039392</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="G407" s="1"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>733</v>
+        <v>687</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>685</v>
@@ -15923,7 +15929,7 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>685</v>
@@ -15944,30 +15950,28 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
-        <v>774</v>
+        <v>684</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>894</v>
+        <v>685</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>895</v>
+        <v>686</v>
       </c>
       <c r="D410" s="4">
-        <v>4301135591</v>
+        <v>4301071031</v>
       </c>
       <c r="E410" s="3">
-        <v>4607111036568</v>
+        <v>4607111038982</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="G410" s="1">
-        <v>180</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="G410" s="1"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>868</v>
+        <v>774</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>894</v>
@@ -15990,7 +15994,7 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>703</v>
+        <v>868</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>894</v>
@@ -16013,28 +16017,30 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>900</v>
+        <v>703</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>706</v>
+        <v>894</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>707</v>
+        <v>895</v>
       </c>
       <c r="D413" s="4">
-        <v>4301135402</v>
+        <v>4301135591</v>
       </c>
       <c r="E413" s="3">
-        <v>4640242181493</v>
+        <v>4607111036568</v>
       </c>
       <c r="F413" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="G413" s="1"/>
+        <v>896</v>
+      </c>
+      <c r="G413" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>705</v>
+        <v>900</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>706</v>
@@ -16055,28 +16061,28 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D415" s="4">
-        <v>4301135607</v>
+        <v>4301135402</v>
       </c>
       <c r="E415" s="3">
-        <v>4607111039613</v>
+        <v>4640242181493</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G415" s="1"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>710</v>
@@ -16097,7 +16103,7 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>710</v>
@@ -16118,7 +16124,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>717</v>
+        <v>771</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>710</v>
@@ -16139,28 +16145,28 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D419" s="4">
-        <v>4301190068</v>
+        <v>4301135607</v>
       </c>
       <c r="E419" s="3">
-        <v>4620207490365</v>
+        <v>4607111039613</v>
       </c>
       <c r="F419" s="5" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G419" s="1"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>719</v>
@@ -16181,7 +16187,7 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>719</v>
@@ -16202,28 +16208,28 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D422" s="4">
-        <v>4301190070</v>
+        <v>4301190068</v>
       </c>
       <c r="E422" s="3">
-        <v>4620207490419</v>
+        <v>4620207490365</v>
       </c>
       <c r="F422" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G422" s="1"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>722</v>
@@ -16244,30 +16250,28 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D424" s="4">
-        <v>4301071032</v>
+        <v>4301190070</v>
       </c>
       <c r="E424" s="3">
-        <v>4607111038999</v>
+        <v>4620207490419</v>
       </c>
       <c r="F424" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="G424" s="1">
-        <v>180</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="G424" s="1"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>791</v>
+        <v>730</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>728</v>
@@ -16290,7 +16294,7 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>872</v>
+        <v>791</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>728</v>
@@ -16313,7 +16317,7 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>728</v>
@@ -16336,7 +16340,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>727</v>
+        <v>873</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>728</v>
@@ -16359,51 +16363,51 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="D429" s="4">
-        <v>4301135404</v>
+        <v>4301071032</v>
       </c>
       <c r="E429" s="3">
-        <v>4640242181516</v>
+        <v>4607111038999</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="G429" s="1"/>
+        <v>730</v>
+      </c>
+      <c r="G429" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D430" s="4">
-        <v>4301071090</v>
+        <v>4301135404</v>
       </c>
       <c r="E430" s="3">
-        <v>4620207490075</v>
+        <v>4640242181516</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="G430" s="1">
-        <v>180</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="G430" s="1"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>750</v>
@@ -16426,22 +16430,22 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D432" s="4">
-        <v>4301071092</v>
+        <v>4301071090</v>
       </c>
       <c r="E432" s="3">
-        <v>4620207490174</v>
+        <v>4620207490075</v>
       </c>
       <c r="F432" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G432" s="1">
         <v>180</v>
@@ -16449,7 +16453,7 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>753</v>
@@ -16472,7 +16476,7 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>753</v>
@@ -16495,22 +16499,22 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D435" s="4">
-        <v>4301071091</v>
+        <v>4301071092</v>
       </c>
       <c r="E435" s="3">
-        <v>4620207490044</v>
+        <v>4620207490174</v>
       </c>
       <c r="F435" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G435" s="1">
         <v>180</v>
@@ -16518,7 +16522,7 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>756</v>
@@ -16541,72 +16545,72 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="D437" s="4">
-        <v>4301132044</v>
+        <v>4301071091</v>
       </c>
       <c r="E437" s="3">
-        <v>4607111036971</v>
+        <v>4620207490044</v>
       </c>
       <c r="F437" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="G437" s="1"/>
+        <v>755</v>
+      </c>
+      <c r="G437" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="D438" s="4">
-        <v>4301135127</v>
+        <v>4301132044</v>
       </c>
       <c r="E438" s="3">
-        <v>4607111036995</v>
+        <v>4607111036971</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="G438" s="1"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
-        <v>886</v>
+        <v>787</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>876</v>
+        <v>788</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>877</v>
+        <v>789</v>
       </c>
       <c r="D439" s="4">
-        <v>4301135670</v>
+        <v>4301135127</v>
       </c>
       <c r="E439" s="3">
-        <v>4620207490983</v>
+        <v>4607111036995</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="G439" s="1">
-        <v>180</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="G439" s="1"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>876</v>
@@ -16629,7 +16633,7 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>876</v>
@@ -16652,7 +16656,7 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>875</v>
+        <v>898</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>876</v>
@@ -16675,28 +16679,30 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D443" s="4">
-        <v>4301071074</v>
+        <v>4301135670</v>
       </c>
       <c r="E443" s="3">
-        <v>4620207491157</v>
+        <v>4620207490983</v>
       </c>
       <c r="F443" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="G443" s="1"/>
+        <v>885</v>
+      </c>
+      <c r="G443" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>879</v>
@@ -16717,7 +16723,7 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>879</v>
@@ -16738,28 +16744,28 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
-        <v>913</v>
+        <v>878</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
       <c r="D446" s="4">
-        <v>4301135763</v>
+        <v>4301071074</v>
       </c>
       <c r="E446" s="3">
-        <v>4620207491027</v>
+        <v>4620207491157</v>
       </c>
       <c r="F446" s="5" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="G446" s="1"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>902</v>
@@ -16780,7 +16786,7 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>902</v>
@@ -16801,7 +16807,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>902</v>
@@ -16822,88 +16828,85 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D450" s="4">
-        <v>4301135665</v>
+        <v>4301135763</v>
       </c>
       <c r="E450" s="3">
-        <v>4607111039729</v>
+        <v>4620207491027</v>
       </c>
       <c r="F450" s="5" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G450" s="1"/>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D451" s="4">
-        <v>4301135702</v>
+        <v>4301135665</v>
       </c>
       <c r="E451" s="3">
-        <v>4620207490228</v>
+        <v>4607111039729</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G451" s="1"/>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>750</v>
+        <v>910</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>751</v>
+        <v>911</v>
       </c>
       <c r="D452" s="4">
-        <v>4301071090</v>
+        <v>4301135702</v>
       </c>
       <c r="E452" s="3">
-        <v>4620207490075</v>
+        <v>4620207490228</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>749</v>
+        <v>912</v>
       </c>
       <c r="G452" s="1"/>
-      <c r="H452" s="16" t="s">
-        <v>924</v>
-      </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D453" s="4">
-        <v>4301071091</v>
+        <v>4301071090</v>
       </c>
       <c r="E453" s="3">
-        <v>4620207490044</v>
+        <v>4620207490075</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="G453" s="1"/>
       <c r="H453" s="16" t="s">
@@ -16912,22 +16915,22 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="D454" s="4">
-        <v>4301071032</v>
+        <v>4301071091</v>
       </c>
       <c r="E454" s="3">
-        <v>4607111038999</v>
+        <v>4620207490044</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>730</v>
+        <v>755</v>
       </c>
       <c r="G454" s="1"/>
       <c r="H454" s="16" t="s">
@@ -16936,22 +16939,22 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>668</v>
+        <v>728</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>669</v>
+        <v>729</v>
       </c>
       <c r="D455" s="4">
-        <v>4301071044</v>
+        <v>4301071032</v>
       </c>
       <c r="E455" s="3">
-        <v>4607111039385</v>
+        <v>4607111038999</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>670</v>
+        <v>730</v>
       </c>
       <c r="G455" s="1"/>
       <c r="H455" s="16" t="s">
@@ -16960,22 +16963,22 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>620</v>
+        <v>668</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="D456" s="4">
-        <v>4301071038</v>
+        <v>4301071044</v>
       </c>
       <c r="E456" s="3">
-        <v>4607111039248</v>
+        <v>4607111039385</v>
       </c>
       <c r="F456" s="5" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="G456" s="1"/>
       <c r="H456" s="16" t="s">
@@ -16984,22 +16987,22 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D457" s="4">
-        <v>4301071051</v>
+        <v>4301071038</v>
       </c>
       <c r="E457" s="3">
-        <v>4607111039262</v>
+        <v>4607111039248</v>
       </c>
       <c r="F457" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="G457" s="1"/>
       <c r="H457" s="16" t="s">
@@ -17008,22 +17011,22 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D458" s="4">
-        <v>4301071049</v>
+        <v>4301071051</v>
       </c>
       <c r="E458" s="3">
-        <v>4607111039293</v>
+        <v>4607111039262</v>
       </c>
       <c r="F458" s="5" t="s">
-        <v>923</v>
+        <v>618</v>
       </c>
       <c r="G458" s="1"/>
       <c r="H458" s="16" t="s">
@@ -17032,22 +17035,22 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D459" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E459" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F459" s="5" t="s">
-        <v>630</v>
+        <v>923</v>
       </c>
       <c r="G459" s="1"/>
       <c r="H459" s="16" t="s">
@@ -17056,97 +17059,100 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
-        <v>645</v>
+        <v>922</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>946</v>
+        <v>628</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>947</v>
+        <v>629</v>
       </c>
       <c r="D460" s="4">
-        <v>4301135760</v>
+        <v>4301071039</v>
       </c>
       <c r="E460" s="3">
-        <v>4620207491010</v>
+        <v>4607111039279</v>
       </c>
       <c r="F460" s="5" t="s">
-        <v>948</v>
+        <v>630</v>
       </c>
       <c r="G460" s="1"/>
       <c r="H460" s="16" t="s">
-        <v>942</v>
+        <v>924</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
-        <v>738</v>
+        <v>645</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>736</v>
+        <v>946</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>737</v>
+        <v>947</v>
       </c>
       <c r="D461" s="4">
-        <v>4301132190</v>
+        <v>4301135760</v>
       </c>
       <c r="E461" s="3">
-        <v>4607111036537</v>
+        <v>4620207491010</v>
       </c>
       <c r="F461" s="5" t="s">
-        <v>738</v>
+        <v>948</v>
       </c>
       <c r="G461" s="1"/>
       <c r="H461" s="16" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
-        <v>927</v>
+        <v>738</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>928</v>
+        <v>736</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>929</v>
+        <v>737</v>
       </c>
       <c r="D462" s="4">
-        <v>4301135768</v>
+        <v>4301132190</v>
       </c>
       <c r="E462" s="3">
-        <v>4620207491034</v>
+        <v>4607111036537</v>
       </c>
       <c r="F462" s="5" t="s">
-        <v>927</v>
+        <v>738</v>
       </c>
       <c r="G462" s="1"/>
+      <c r="H462" s="16" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D463" s="4">
-        <v>4301071097</v>
+        <v>4301135768</v>
       </c>
       <c r="E463" s="3">
-        <v>4620207491096</v>
+        <v>4620207491034</v>
       </c>
       <c r="F463" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G463" s="1"/>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>931</v>
@@ -17167,28 +17173,28 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D465" s="4">
-        <v>4301132227</v>
+        <v>4301071097</v>
       </c>
       <c r="E465" s="3">
-        <v>4620207491133</v>
+        <v>4620207491096</v>
       </c>
       <c r="F465" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="G465" s="1"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>934</v>
@@ -17209,91 +17215,91 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D467" s="4">
+        <v>4301132227</v>
+      </c>
+      <c r="E467" s="3">
+        <v>4620207491133</v>
+      </c>
+      <c r="F467" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="B467" s="3" t="s">
+      <c r="B468" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="C467" s="3" t="s">
+      <c r="C468" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="D467" s="4">
+      <c r="D468" s="4">
         <v>4301135753</v>
       </c>
-      <c r="E467" s="3">
+      <c r="E468" s="3">
         <v>4620207490914</v>
       </c>
-      <c r="F467" s="5" t="s">
+      <c r="F468" s="5" t="s">
         <v>957</v>
-      </c>
-      <c r="G467" s="1"/>
-    </row>
-    <row r="468" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A468" s="10" t="s">
-        <v>959</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="D468" s="4">
-        <v>4301070962</v>
-      </c>
-      <c r="E468" s="3">
-        <v>4607111038609</v>
-      </c>
-      <c r="F468" s="5" t="s">
-        <v>864</v>
       </c>
       <c r="G468" s="1"/>
     </row>
     <row r="469" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A469" s="10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D469" s="4">
-        <v>4301070959</v>
+        <v>4301070962</v>
       </c>
       <c r="E469" s="3">
-        <v>4607111038616</v>
+        <v>4607111038609</v>
       </c>
       <c r="F469" s="5" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="G469" s="1"/>
     </row>
     <row r="470" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A470" s="10" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>963</v>
+        <v>859</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>964</v>
+        <v>860</v>
       </c>
       <c r="D470" s="4">
-        <v>4301071075</v>
+        <v>4301070959</v>
       </c>
       <c r="E470" s="3">
-        <v>4620207491102</v>
+        <v>4607111038616</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>965</v>
+        <v>861</v>
       </c>
       <c r="G470" s="1"/>
     </row>
     <row r="471" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
-        <v>962</v>
+        <v>976</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>963</v>
@@ -17312,807 +17318,807 @@
       </c>
       <c r="G471" s="1"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
-        <v>726</v>
+        <v>962</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>724</v>
+        <v>963</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>725</v>
+        <v>964</v>
       </c>
       <c r="D472" s="4">
-        <v>4301135574</v>
+        <v>4301071075</v>
       </c>
       <c r="E472" s="3">
-        <v>4607111033659</v>
+        <v>4620207491102</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>726</v>
+        <v>965</v>
       </c>
       <c r="G472" s="1"/>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="D473" s="4">
-        <v>4301135550</v>
+        <v>4301135574</v>
       </c>
       <c r="E473" s="3">
-        <v>4607111034199</v>
+        <v>4607111033659</v>
       </c>
       <c r="F473" s="5" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="G473" s="1"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="10" t="s">
-        <v>957</v>
+        <v>744</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>955</v>
+        <v>742</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>956</v>
+        <v>743</v>
       </c>
       <c r="D474" s="4">
-        <v>4301135753</v>
+        <v>4301135550</v>
       </c>
       <c r="E474" s="3">
-        <v>4620207490914</v>
+        <v>4607111034199</v>
       </c>
       <c r="F474" s="5" t="s">
-        <v>957</v>
+        <v>744</v>
       </c>
       <c r="G474" s="1"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
-        <v>883</v>
+        <v>957</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>881</v>
+        <v>955</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>882</v>
+        <v>956</v>
       </c>
       <c r="D475" s="4">
-        <v>4301131046</v>
+        <v>4301135753</v>
       </c>
       <c r="E475" s="3">
-        <v>4607111034137</v>
+        <v>4620207490914</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>883</v>
+        <v>957</v>
       </c>
       <c r="G475" s="1"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
-        <v>783</v>
+        <v>883</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>781</v>
+        <v>881</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>782</v>
+        <v>882</v>
       </c>
       <c r="D476" s="4">
-        <v>4301131047</v>
+        <v>4301131046</v>
       </c>
       <c r="E476" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>783</v>
+        <v>883</v>
       </c>
       <c r="G476" s="1"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="D477" s="4">
-        <v>4301132188</v>
+        <v>4301131047</v>
       </c>
       <c r="E477" s="3">
-        <v>4607111036605</v>
+        <v>4607111034120</v>
       </c>
       <c r="F477" s="5" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="G477" s="1"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
-        <v>871</v>
+        <v>761</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>869</v>
+        <v>759</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>870</v>
+        <v>760</v>
       </c>
       <c r="D478" s="4">
-        <v>4301132179</v>
+        <v>4301132188</v>
       </c>
       <c r="E478" s="3">
-        <v>4607111035691</v>
+        <v>4607111036605</v>
       </c>
       <c r="F478" s="5" t="s">
-        <v>871</v>
+        <v>761</v>
       </c>
       <c r="G478" s="1"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
-        <v>701</v>
+        <v>871</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>699</v>
+        <v>869</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>700</v>
+        <v>870</v>
       </c>
       <c r="D479" s="4">
-        <v>4301135570</v>
+        <v>4301132179</v>
       </c>
       <c r="E479" s="3">
-        <v>4607111035806</v>
+        <v>4607111035691</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>701</v>
+        <v>871</v>
       </c>
       <c r="G479" s="1"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
-        <v>923</v>
+        <v>701</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="D480" s="4">
-        <v>4301071049</v>
+        <v>4301135570</v>
       </c>
       <c r="E480" s="3">
-        <v>4607111039293</v>
+        <v>4607111035806</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>923</v>
+        <v>701</v>
       </c>
       <c r="G480" s="1"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
-        <v>656</v>
+        <v>923</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="D481" s="4">
-        <v>4301135555</v>
+        <v>4301071049</v>
       </c>
       <c r="E481" s="3">
-        <v>4607111034014</v>
+        <v>4607111039293</v>
       </c>
       <c r="F481" s="5" t="s">
-        <v>656</v>
+        <v>923</v>
       </c>
       <c r="G481" s="1"/>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D482" s="4">
-        <v>4301135532</v>
+        <v>4301135555</v>
       </c>
       <c r="E482" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F482" s="5" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="G482" s="1"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D483" s="4">
+        <v>4301135532</v>
+      </c>
+      <c r="E483" s="3">
+        <v>4607111033994</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484" s="10" t="s">
         <v>968</v>
       </c>
-      <c r="B483" s="3" t="s">
+      <c r="B484" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="C483" s="3" t="s">
+      <c r="C484" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="D483" s="4">
+      <c r="D484" s="4">
         <v>4301071094</v>
       </c>
-      <c r="E483" s="3">
+      <c r="E484" s="3">
         <v>4620207491140</v>
       </c>
-      <c r="F483" s="5" t="s">
+      <c r="F484" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="G483" s="1"/>
-    </row>
-    <row r="484" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A484" s="10" t="s">
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A485" s="10" t="s">
         <v>972</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="B485" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="C484" s="3" t="s">
+      <c r="C485" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="D484" s="4">
+      <c r="D485" s="4">
         <v>4301071093</v>
       </c>
-      <c r="E484" s="3">
+      <c r="E485" s="3">
         <v>4620207490709</v>
       </c>
-      <c r="F484" s="5" t="s">
+      <c r="F485" s="5" t="s">
         <v>975</v>
-      </c>
-      <c r="G484" s="1"/>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A485" s="10" t="s">
-        <v>977</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D485" s="4">
-        <v>4301132190</v>
-      </c>
-      <c r="E485" s="3">
-        <v>4607111036537</v>
-      </c>
-      <c r="F485" s="5" t="s">
-        <v>738</v>
       </c>
       <c r="G485" s="1"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="10" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="D486" s="4">
-        <v>4301132188</v>
+        <v>4301132190</v>
       </c>
       <c r="E486" s="3">
-        <v>4607111036605</v>
+        <v>4607111036537</v>
       </c>
       <c r="F486" s="5" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="G486" s="1"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="D487" s="4">
-        <v>4301071090</v>
+        <v>4301132188</v>
       </c>
       <c r="E487" s="3">
-        <v>4620207490075</v>
+        <v>4607111036605</v>
       </c>
       <c r="F487" s="5" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="G487" s="1"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D488" s="4">
-        <v>4301071091</v>
+        <v>4301071090</v>
       </c>
       <c r="E488" s="3">
-        <v>4620207490044</v>
+        <v>4620207490075</v>
       </c>
       <c r="F488" s="5" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="G488" s="1"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>668</v>
+        <v>756</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>669</v>
+        <v>757</v>
       </c>
       <c r="D489" s="4">
-        <v>4301071044</v>
+        <v>4301071091</v>
       </c>
       <c r="E489" s="3">
-        <v>4607111039385</v>
+        <v>4620207490044</v>
       </c>
       <c r="F489" s="5" t="s">
-        <v>670</v>
+        <v>755</v>
       </c>
       <c r="G489" s="1"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>724</v>
+        <v>668</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>725</v>
+        <v>669</v>
       </c>
       <c r="D490" s="4">
-        <v>4301135574</v>
+        <v>4301071044</v>
       </c>
       <c r="E490" s="3">
-        <v>4607111033659</v>
+        <v>4607111039385</v>
       </c>
       <c r="F490" s="5" t="s">
-        <v>726</v>
+        <v>670</v>
       </c>
       <c r="G490" s="1"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>781</v>
+        <v>724</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>782</v>
+        <v>725</v>
       </c>
       <c r="D491" s="4">
-        <v>4301131047</v>
+        <v>4301135574</v>
       </c>
       <c r="E491" s="3">
-        <v>4607111034120</v>
+        <v>4607111033659</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>783</v>
+        <v>726</v>
       </c>
       <c r="G491" s="1"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>882</v>
+        <v>782</v>
       </c>
       <c r="D492" s="4">
-        <v>4301131046</v>
+        <v>4301131047</v>
       </c>
       <c r="E492" s="3">
-        <v>4607111034137</v>
+        <v>4607111034120</v>
       </c>
       <c r="F492" s="5" t="s">
-        <v>883</v>
+        <v>783</v>
       </c>
       <c r="G492" s="1"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>939</v>
+        <v>881</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>940</v>
+        <v>882</v>
       </c>
       <c r="D493" s="4">
-        <v>4301135793</v>
+        <v>4301131046</v>
       </c>
       <c r="E493" s="3">
-        <v>4620207491003</v>
+        <v>4607111034137</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>941</v>
+        <v>883</v>
       </c>
       <c r="G493" s="1"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="D494" s="4">
-        <v>4301135760</v>
+        <v>4301135793</v>
       </c>
       <c r="E494" s="3">
-        <v>4620207491010</v>
+        <v>4620207491003</v>
       </c>
       <c r="F494" s="5" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="G494" s="1"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>185</v>
+        <v>946</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>526</v>
+        <v>947</v>
       </c>
       <c r="D495" s="4">
-        <v>4301135285</v>
+        <v>4301135760</v>
       </c>
       <c r="E495" s="3">
-        <v>4607111036407</v>
+        <v>4620207491010</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>186</v>
+        <v>948</v>
       </c>
       <c r="G495" s="1"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D496" s="4">
-        <v>4301136070</v>
+        <v>4301135285</v>
       </c>
       <c r="E496" s="3">
-        <v>4607025784012</v>
+        <v>4607111036407</v>
       </c>
       <c r="F496" s="5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G496" s="1"/>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="10" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>616</v>
+        <v>169</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>617</v>
+        <v>527</v>
       </c>
       <c r="D497" s="4">
-        <v>4301071051</v>
+        <v>4301136070</v>
       </c>
       <c r="E497" s="3">
-        <v>4607111039262</v>
+        <v>4607025784012</v>
       </c>
       <c r="F497" s="5" t="s">
-        <v>618</v>
+        <v>170</v>
       </c>
       <c r="G497" s="1"/>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="10" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D498" s="4">
-        <v>4301071038</v>
+        <v>4301071051</v>
       </c>
       <c r="E498" s="3">
-        <v>4607111039248</v>
+        <v>4607111039262</v>
       </c>
       <c r="F498" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G498" s="1"/>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="10" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D499" s="4">
-        <v>4301071049</v>
+        <v>4301071038</v>
       </c>
       <c r="E499" s="3">
-        <v>4607111039293</v>
+        <v>4607111039248</v>
       </c>
       <c r="F499" s="5" t="s">
-        <v>923</v>
+        <v>622</v>
       </c>
       <c r="G499" s="1"/>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="10" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D500" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E500" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F500" s="5" t="s">
-        <v>630</v>
+        <v>923</v>
       </c>
       <c r="G500" s="1"/>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="10" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="D501" s="4">
-        <v>4301135555</v>
+        <v>4301071039</v>
       </c>
       <c r="E501" s="3">
-        <v>4607111034014</v>
+        <v>4607111039279</v>
       </c>
       <c r="F501" s="5" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="G501" s="1"/>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D502" s="4">
-        <v>4301135532</v>
+        <v>4301135555</v>
       </c>
       <c r="E502" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="G502" s="1"/>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="10" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>742</v>
+        <v>651</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>743</v>
+        <v>652</v>
       </c>
       <c r="D503" s="4">
-        <v>4301135550</v>
+        <v>4301135532</v>
       </c>
       <c r="E503" s="3">
-        <v>4607111034199</v>
+        <v>4607111033994</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>744</v>
+        <v>653</v>
       </c>
       <c r="G503" s="1"/>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="10" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>955</v>
+        <v>742</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>956</v>
+        <v>743</v>
       </c>
       <c r="D504" s="4">
-        <v>4301135753</v>
+        <v>4301135550</v>
       </c>
       <c r="E504" s="3">
-        <v>4620207490914</v>
+        <v>4607111034199</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>957</v>
+        <v>744</v>
       </c>
       <c r="G504" s="1"/>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="10" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>699</v>
+        <v>955</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>700</v>
+        <v>956</v>
       </c>
       <c r="D505" s="4">
-        <v>4301135570</v>
+        <v>4301135753</v>
       </c>
       <c r="E505" s="3">
-        <v>4607111035806</v>
+        <v>4620207490914</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>701</v>
+        <v>957</v>
       </c>
       <c r="G505" s="1"/>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="10" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>869</v>
+        <v>699</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>870</v>
+        <v>700</v>
       </c>
       <c r="D506" s="4">
-        <v>4301132179</v>
+        <v>4301135570</v>
       </c>
       <c r="E506" s="3">
-        <v>4607111035691</v>
+        <v>4607111035806</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>871</v>
+        <v>701</v>
       </c>
       <c r="G506" s="1"/>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="10" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>239</v>
+        <v>869</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>1001</v>
+        <v>870</v>
       </c>
       <c r="D507" s="4">
-        <v>4301071063</v>
+        <v>4301132179</v>
       </c>
       <c r="E507" s="3">
-        <v>4607111039019</v>
+        <v>4607111035691</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>1002</v>
+        <v>871</v>
       </c>
       <c r="G507" s="1"/>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="10" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>496</v>
+        <v>239</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>497</v>
+        <v>1001</v>
       </c>
       <c r="D508" s="4">
-        <v>4301071000</v>
+        <v>4301071063</v>
       </c>
       <c r="E508" s="3">
-        <v>4607111038708</v>
+        <v>4607111039019</v>
       </c>
       <c r="F508" s="5" t="s">
-        <v>498</v>
+        <v>1002</v>
       </c>
       <c r="G508" s="1"/>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1004</v>
+        <v>496</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>1005</v>
+        <v>497</v>
       </c>
       <c r="D509" s="4">
-        <v>4301135692</v>
+        <v>4301071000</v>
       </c>
       <c r="E509" s="3">
-        <v>4620207490570</v>
+        <v>4607111038708</v>
       </c>
       <c r="F509" s="5" t="s">
-        <v>1003</v>
+        <v>498</v>
       </c>
       <c r="G509" s="1"/>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="10" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>1004</v>
@@ -18132,47 +18138,44 @@
       <c r="G510" s="1"/>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A511" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="B511" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="C511" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="D511" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E511" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F511" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="G511" s="21"/>
-      <c r="H511" s="22" t="s">
-        <v>853</v>
-      </c>
+      <c r="A511" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D511" s="4">
+        <v>4301135692</v>
+      </c>
+      <c r="E511" s="3">
+        <v>4620207490570</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G511" s="1"/>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>106</v>
+        <v>620</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>261</v>
+        <v>621</v>
       </c>
       <c r="D512" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E512" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>262</v>
+        <v>622</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
@@ -18181,22 +18184,22 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B513" s="18" t="s">
-        <v>628</v>
+        <v>106</v>
       </c>
       <c r="C513" s="18" t="s">
-        <v>629</v>
+        <v>261</v>
       </c>
       <c r="D513" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E513" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F513" s="20" t="s">
-        <v>630</v>
+        <v>262</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18205,22 +18208,22 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D514" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E514" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F514" s="20" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18229,22 +18232,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>293</v>
+        <v>616</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>294</v>
+        <v>617</v>
       </c>
       <c r="D515" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E515" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>295</v>
+        <v>618</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18253,22 +18256,22 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>524</v>
+        <v>294</v>
       </c>
       <c r="D516" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E516" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18277,22 +18280,22 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="B517" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C517" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D517" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E517" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F517" s="5" t="s">
-        <v>304</v>
+        <v>797</v>
+      </c>
+      <c r="B517" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C517" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D517" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E517" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F517" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
@@ -18301,22 +18304,22 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>799</v>
-      </c>
-      <c r="B518" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C518" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D518" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E518" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F518" s="20" t="s">
-        <v>320</v>
+        <v>798</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D518" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E518" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
@@ -18325,22 +18328,22 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B519" s="18" t="s">
-        <v>553</v>
+        <v>318</v>
       </c>
       <c r="C519" s="18" t="s">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="D519" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E519" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F519" s="20" t="s">
-        <v>555</v>
+        <v>320</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
@@ -18349,70 +18352,70 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>801</v>
-      </c>
-      <c r="B520" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="C520" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="D520" s="4">
-        <v>4301135760</v>
-      </c>
-      <c r="E520" s="3">
-        <v>4620207491010</v>
-      </c>
-      <c r="F520" s="5" t="s">
-        <v>948</v>
+        <v>800</v>
+      </c>
+      <c r="B520" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C520" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="D520" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E520" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F520" s="20" t="s">
+        <v>555</v>
       </c>
       <c r="G520" s="21"/>
-      <c r="H520" s="16" t="s">
-        <v>942</v>
+      <c r="H520" s="22" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="B521" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C521" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="D521" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E521" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F521" s="20" t="s">
-        <v>632</v>
+        <v>801</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D521" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E521" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>948</v>
       </c>
       <c r="G521" s="21"/>
-      <c r="H521" s="22" t="s">
-        <v>853</v>
+      <c r="H521" s="16" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B522" s="18" t="s">
-        <v>624</v>
+        <v>112</v>
       </c>
       <c r="C522" s="18" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D522" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E522" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F522" s="20" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="G522" s="21"/>
       <c r="H522" s="22" t="s">
@@ -18421,22 +18424,22 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B523" s="18" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="C523" s="18" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="D523" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E523" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F523" s="20" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="G523" s="21"/>
       <c r="H523" s="22" t="s">
@@ -18445,22 +18448,22 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="B524" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D524" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E524" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F524" s="5" t="s">
-        <v>656</v>
+        <v>804</v>
+      </c>
+      <c r="B524" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="C524" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="D524" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E524" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F524" s="20" t="s">
+        <v>653</v>
       </c>
       <c r="G524" s="21"/>
       <c r="H524" s="22" t="s">
@@ -18469,70 +18472,70 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>939</v>
+        <v>654</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>940</v>
+        <v>655</v>
       </c>
       <c r="D525" s="4">
-        <v>4301135793</v>
+        <v>4301135555</v>
       </c>
       <c r="E525" s="3">
-        <v>4620207491003</v>
+        <v>4607111034014</v>
       </c>
       <c r="F525" s="5" t="s">
-        <v>941</v>
+        <v>656</v>
       </c>
       <c r="G525" s="21"/>
-      <c r="H525" s="16" t="s">
-        <v>942</v>
+      <c r="H525" s="22" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>382</v>
+        <v>939</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>383</v>
+        <v>940</v>
       </c>
       <c r="D526" s="4">
-        <v>4301136052</v>
+        <v>4301135793</v>
       </c>
       <c r="E526" s="3">
-        <v>4640242180410</v>
+        <v>4620207491003</v>
       </c>
       <c r="F526" s="5" t="s">
-        <v>384</v>
+        <v>941</v>
       </c>
       <c r="G526" s="21"/>
-      <c r="H526" s="22" t="s">
-        <v>853</v>
+      <c r="H526" s="16" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>549</v>
+        <v>382</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>550</v>
+        <v>383</v>
       </c>
       <c r="D527" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E527" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F527" s="5" t="s">
-        <v>551</v>
+        <v>384</v>
       </c>
       <c r="G527" s="21"/>
       <c r="H527" s="22" t="s">
@@ -18541,22 +18544,22 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="B528" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="C528" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="D528" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E528" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F528" s="20" t="s">
-        <v>601</v>
+        <v>808</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D528" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E528" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F528" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="G528" s="21"/>
       <c r="H528" s="22" t="s">
@@ -18565,22 +18568,22 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B529" s="18" t="s">
-        <v>854</v>
+        <v>599</v>
       </c>
       <c r="C529" s="18" t="s">
-        <v>855</v>
+        <v>600</v>
       </c>
       <c r="D529" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E529" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F529" s="20" t="s">
-        <v>425</v>
+        <v>601</v>
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
@@ -18589,22 +18592,22 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B530" s="18" t="s">
-        <v>164</v>
+        <v>854</v>
       </c>
       <c r="C530" s="18" t="s">
-        <v>634</v>
+        <v>855</v>
       </c>
       <c r="D530" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E530" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F530" s="20" t="s">
-        <v>635</v>
+        <v>425</v>
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
@@ -18613,22 +18616,22 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C531" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D531" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E531" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F531" s="5" t="s">
-        <v>301</v>
+        <v>811</v>
+      </c>
+      <c r="B531" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C531" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="D531" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E531" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F531" s="20" t="s">
+        <v>635</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
@@ -18637,22 +18640,22 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B532" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C532" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D532" s="19">
-        <v>4301070920</v>
-      </c>
-      <c r="E532" s="18">
-        <v>4607111035929</v>
-      </c>
-      <c r="F532" s="20" t="s">
-        <v>111</v>
+        <v>812</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D532" s="4">
+        <v>4301136051</v>
+      </c>
+      <c r="E532" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
@@ -18661,22 +18664,22 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="D533" s="4">
-        <v>4301135550</v>
-      </c>
-      <c r="E533" s="3">
-        <v>4607111034199</v>
-      </c>
-      <c r="F533" s="5" t="s">
-        <v>744</v>
+        <v>813</v>
+      </c>
+      <c r="B533" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C533" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D533" s="19">
+        <v>4301070920</v>
+      </c>
+      <c r="E533" s="18">
+        <v>4607111035929</v>
+      </c>
+      <c r="F533" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -18685,22 +18688,22 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="B534" s="18" t="s">
-        <v>739</v>
-      </c>
-      <c r="C534" s="18" t="s">
-        <v>740</v>
-      </c>
-      <c r="D534" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E534" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F534" s="20" t="s">
-        <v>741</v>
+        <v>814</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D534" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E534" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F534" s="5" t="s">
+        <v>744</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -18709,22 +18712,22 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B535" s="18" t="s">
-        <v>612</v>
+        <v>739</v>
       </c>
       <c r="C535" s="18" t="s">
-        <v>613</v>
+        <v>740</v>
       </c>
       <c r="D535" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E535" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F535" s="20" t="s">
-        <v>614</v>
+        <v>741</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
@@ -18733,22 +18736,22 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="B536" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="C536" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="D536" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E536" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F536" s="5" t="s">
-        <v>783</v>
+        <v>816</v>
+      </c>
+      <c r="B536" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="C536" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="D536" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E536" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F536" s="20" t="s">
+        <v>614</v>
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
@@ -18757,70 +18760,70 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>902</v>
+        <v>781</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>903</v>
+        <v>782</v>
       </c>
       <c r="D537" s="4">
-        <v>4301135763</v>
+        <v>4301131047</v>
       </c>
       <c r="E537" s="3">
-        <v>4620207491027</v>
+        <v>4607111034120</v>
       </c>
       <c r="F537" s="5" t="s">
-        <v>904</v>
+        <v>783</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
-        <v>961</v>
+        <v>853</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="B538" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="C538" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="D538" s="19">
-        <v>4301135405</v>
-      </c>
-      <c r="E538" s="18">
-        <v>4640242181523</v>
-      </c>
-      <c r="F538" s="20" t="s">
-        <v>559</v>
+        <v>818</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D538" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E538" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F538" s="5" t="s">
+        <v>904</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
-        <v>853</v>
+        <v>961</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B539" s="18" t="s">
-        <v>706</v>
+        <v>557</v>
       </c>
       <c r="C539" s="18" t="s">
-        <v>707</v>
+        <v>558</v>
       </c>
       <c r="D539" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E539" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F539" s="20" t="s">
-        <v>705</v>
+        <v>559</v>
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
@@ -18829,22 +18832,22 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B540" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C540" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="D540" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E540" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F540" s="5" t="s">
-        <v>883</v>
+        <v>820</v>
+      </c>
+      <c r="B540" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="C540" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="D540" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E540" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F540" s="20" t="s">
+        <v>705</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
@@ -18853,22 +18856,22 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="D541" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E541" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
@@ -18877,22 +18880,22 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>955</v>
+        <v>887</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>956</v>
+        <v>888</v>
       </c>
       <c r="D542" s="4">
-        <v>4301135753</v>
+        <v>4301136079</v>
       </c>
       <c r="E542" s="3">
-        <v>4620207490914</v>
+        <v>4607025784319</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>957</v>
+        <v>889</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
@@ -18901,70 +18904,70 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="D543" s="4">
-        <v>4301135778</v>
+        <v>4301135753</v>
       </c>
       <c r="E543" s="3">
-        <v>4620207490853</v>
+        <v>4620207490914</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="G543" s="21"/>
-      <c r="H543" s="16" t="s">
-        <v>949</v>
+      <c r="H543" s="22" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>869</v>
+        <v>943</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>870</v>
+        <v>944</v>
       </c>
       <c r="D544" s="4">
-        <v>4301132179</v>
+        <v>4301135778</v>
       </c>
       <c r="E544" s="3">
-        <v>4607111035691</v>
+        <v>4620207490853</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>871</v>
+        <v>945</v>
       </c>
       <c r="G544" s="21"/>
-      <c r="H544" s="22" t="s">
-        <v>853</v>
+      <c r="H544" s="16" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>736</v>
+        <v>869</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>737</v>
+        <v>870</v>
       </c>
       <c r="D545" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E545" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>738</v>
+        <v>871</v>
       </c>
       <c r="G545" s="21"/>
       <c r="H545" s="22" t="s">
@@ -18973,22 +18976,22 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="B546" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C546" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D546" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E546" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F546" s="20" t="s">
-        <v>377</v>
+        <v>826</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D546" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E546" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F546" s="5" t="s">
+        <v>738</v>
       </c>
       <c r="G546" s="21"/>
       <c r="H546" s="22" t="s">
@@ -18997,22 +19000,22 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B547" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="C547" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="D547" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E547" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F547" s="5" t="s">
-        <v>892</v>
+        <v>827</v>
+      </c>
+      <c r="B547" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C547" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D547" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E547" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F547" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="G547" s="21"/>
       <c r="H547" s="22" t="s">
@@ -19021,70 +19024,70 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="D548" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E548" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F548" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="G548" s="21"/>
+      <c r="H548" s="22" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A549" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="B548" s="3" t="s">
+      <c r="B549" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="C548" s="3" t="s">
+      <c r="C549" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="D548" s="4">
+      <c r="D549" s="4">
         <v>4301135768</v>
       </c>
-      <c r="E548" s="3">
+      <c r="E549" s="3">
         <v>4620207491034</v>
       </c>
-      <c r="F548" s="5" t="s">
+      <c r="F549" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="G548" s="21"/>
-      <c r="H548" s="16" t="s">
+      <c r="G549" s="21"/>
+      <c r="H549" s="16" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A549" s="17" t="s">
+    <row r="550" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A550" s="17" t="s">
         <v>831</v>
       </c>
-      <c r="B549" s="18" t="s">
+      <c r="B550" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="C549" s="18" t="s">
+      <c r="C550" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="D549" s="19">
+      <c r="D550" s="19">
         <v>4301070960</v>
       </c>
-      <c r="E549" s="18">
+      <c r="E550" s="18">
         <v>4607111038623</v>
       </c>
-      <c r="F549" s="20" t="s">
+      <c r="F550" s="20" t="s">
         <v>489</v>
-      </c>
-      <c r="G549" s="21"/>
-      <c r="H549" s="22" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A550" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="B550" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C550" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D550" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E550" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F550" s="20" t="s">
-        <v>367</v>
       </c>
       <c r="G550" s="21"/>
       <c r="H550" s="22" t="s">
@@ -19092,71 +19095,71 @@
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A551" s="10" t="s">
+      <c r="A551" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="B551" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C551" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D551" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E551" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F551" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G551" s="21"/>
+      <c r="H551" s="22" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A552" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="B551" s="3" t="s">
+      <c r="B552" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="C551" s="3" t="s">
+      <c r="C552" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="D551" s="4">
+      <c r="D552" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E551" s="3">
+      <c r="E552" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F551" s="5" t="s">
+      <c r="F552" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="G551" s="1"/>
-      <c r="H551" s="16" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A552" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B552" s="18" t="s">
-        <v>856</v>
-      </c>
-      <c r="C552" s="18" t="s">
-        <v>857</v>
-      </c>
-      <c r="D552" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E552" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F552" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="G552" s="21"/>
-      <c r="H552" s="22" t="s">
+      <c r="G552" s="1"/>
+      <c r="H552" s="16" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B553" s="18" t="s">
-        <v>154</v>
+        <v>856</v>
       </c>
       <c r="C553" s="18" t="s">
-        <v>155</v>
+        <v>857</v>
       </c>
       <c r="D553" s="19">
-        <v>4301070921</v>
+        <v>4301070990</v>
       </c>
       <c r="E553" s="18">
-        <v>4607111035905</v>
+        <v>4607111038494</v>
       </c>
       <c r="F553" s="20" t="s">
-        <v>156</v>
+        <v>858</v>
       </c>
       <c r="G553" s="21"/>
       <c r="H553" s="22" t="s">
@@ -19165,22 +19168,22 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="B554" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C554" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D554" s="4">
-        <v>4301135824</v>
-      </c>
-      <c r="E554" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F554" s="5" t="s">
-        <v>1009</v>
+        <v>834</v>
+      </c>
+      <c r="B554" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C554" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D554" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E554" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F554" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="G554" s="21"/>
       <c r="H554" s="22" t="s">
@@ -19189,22 +19192,22 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="B555" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C555" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="D555" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E555" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F555" s="20" t="s">
-        <v>186</v>
+        <v>835</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D555" s="4">
+        <v>4301135824</v>
+      </c>
+      <c r="E555" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F555" s="5" t="s">
+        <v>1009</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="22" t="s">
@@ -19213,22 +19216,22 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
-        <v>712</v>
-      </c>
-      <c r="B556" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C556" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="D556" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E556" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F556" s="5" t="s">
-        <v>712</v>
+        <v>836</v>
+      </c>
+      <c r="B556" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C556" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D556" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E556" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F556" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19237,22 +19240,22 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="B557" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C557" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D557" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E557" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F557" s="20" t="s">
-        <v>129</v>
+        <v>712</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D557" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E557" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F557" s="5" t="s">
+        <v>712</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">
@@ -19261,22 +19264,22 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="B558" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C558" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="D558" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E558" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F558" s="5" t="s">
-        <v>726</v>
+        <v>837</v>
+      </c>
+      <c r="B558" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C558" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D558" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E558" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F558" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="G558" s="21"/>
       <c r="H558" s="22" t="s">
@@ -19285,22 +19288,22 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="B559" s="18" t="s">
-        <v>668</v>
-      </c>
-      <c r="C559" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="D559" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E559" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F559" s="20" t="s">
-        <v>670</v>
+        <v>838</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D559" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E559" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F559" s="5" t="s">
+        <v>726</v>
       </c>
       <c r="G559" s="21"/>
       <c r="H559" s="22" t="s">
@@ -19309,22 +19312,22 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B560" s="18" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C560" s="18" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D560" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E560" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F560" s="20" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="G560" s="21"/>
       <c r="H560" s="22" t="s">
@@ -19333,22 +19336,22 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B561" s="18" t="s">
-        <v>181</v>
+        <v>685</v>
       </c>
       <c r="C561" s="18" t="s">
-        <v>182</v>
+        <v>686</v>
       </c>
       <c r="D561" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E561" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F561" s="20" t="s">
-        <v>183</v>
+        <v>687</v>
       </c>
       <c r="G561" s="21"/>
       <c r="H561" s="22" t="s">
@@ -19357,22 +19360,22 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="B562" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C562" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D562" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E562" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F562" s="5" t="s">
-        <v>170</v>
+        <v>841</v>
+      </c>
+      <c r="B562" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C562" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D562" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E562" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F562" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="G562" s="21"/>
       <c r="H562" s="22" t="s">
@@ -19381,46 +19384,46 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B563" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="C563" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="D563" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E563" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F563" s="20" t="s">
-        <v>610</v>
+        <v>842</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D563" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E563" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F563" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="22" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B564" s="18" t="s">
-        <v>859</v>
+        <v>608</v>
       </c>
       <c r="C564" s="18" t="s">
-        <v>860</v>
+        <v>609</v>
       </c>
       <c r="D564" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E564" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F564" s="20" t="s">
-        <v>861</v>
+        <v>610</v>
       </c>
       <c r="G564" s="21"/>
       <c r="H564" s="22" t="s">
@@ -19429,46 +19432,46 @@
     </row>
     <row r="565" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A565" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B565" s="18" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C565" s="18" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D565" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E565" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F565" s="20" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G565" s="21"/>
       <c r="H565" s="22" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A566" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B566" s="18" t="s">
-        <v>254</v>
+        <v>862</v>
       </c>
       <c r="C566" s="18" t="s">
-        <v>255</v>
+        <v>863</v>
       </c>
       <c r="D566" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E566" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F566" s="20" t="s">
-        <v>152</v>
+        <v>864</v>
       </c>
       <c r="G566" s="21"/>
       <c r="H566" s="22" t="s">
@@ -19477,22 +19480,22 @@
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B567" s="18" t="s">
-        <v>699</v>
+        <v>254</v>
       </c>
       <c r="C567" s="18" t="s">
-        <v>700</v>
+        <v>255</v>
       </c>
       <c r="D567" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E567" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F567" s="20" t="s">
-        <v>701</v>
+        <v>152</v>
       </c>
       <c r="G567" s="21"/>
       <c r="H567" s="22" t="s">
@@ -19501,22 +19504,22 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B568" s="18" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="C568" s="18" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="D568" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E568" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F568" s="20" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
       <c r="G568" s="21"/>
       <c r="H568" s="22" t="s">
@@ -19525,22 +19528,22 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B569" s="18" t="s">
-        <v>672</v>
+        <v>728</v>
       </c>
       <c r="C569" s="18" t="s">
-        <v>673</v>
+        <v>729</v>
       </c>
       <c r="D569" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E569" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F569" s="20" t="s">
-        <v>674</v>
+        <v>730</v>
       </c>
       <c r="G569" s="21"/>
       <c r="H569" s="22" t="s">
@@ -19549,22 +19552,22 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B570" s="18" t="s">
-        <v>483</v>
+        <v>672</v>
       </c>
       <c r="C570" s="18" t="s">
-        <v>484</v>
+        <v>673</v>
       </c>
       <c r="D570" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E570" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F570" s="20" t="s">
-        <v>485</v>
+        <v>674</v>
       </c>
       <c r="G570" s="21"/>
       <c r="H570" s="22" t="s">
@@ -19573,22 +19576,22 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B571" s="18" t="s">
-        <v>590</v>
+        <v>483</v>
       </c>
       <c r="C571" s="18" t="s">
-        <v>591</v>
+        <v>484</v>
       </c>
       <c r="D571" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E571" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F571" s="20" t="s">
-        <v>592</v>
+        <v>485</v>
       </c>
       <c r="G571" s="21"/>
       <c r="H571" s="22" t="s">
@@ -19597,30 +19600,54 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B572" s="18" t="s">
-        <v>340</v>
+        <v>590</v>
       </c>
       <c r="C572" s="18" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="D572" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E572" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F572" s="20" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="G572" s="21"/>
       <c r="H572" s="22" t="s">
         <v>853</v>
       </c>
     </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A573" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="B573" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C573" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="D573" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E573" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F573" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="G573" s="21"/>
+      <c r="H573" s="22" t="s">
+        <v>853</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F572" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F573" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F254">
       <sortCondition ref="A1:A185"/>
     </sortState>
